--- a/BackTest/2020-01-14 BackTest ARN.xlsx
+++ b/BackTest/2020-01-14 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>-26481.44726809</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-26382.46506809</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-26431.54836809</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-26428.54836809</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-25414.09330967</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-26877.65060967</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-26877.65060967</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-26877.65060967</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-30422.97290967</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-30472.07800967</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-33590.04880967001</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-29560.69080967001</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-25931.10460967</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-26839.57280967</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-26836.57280967</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-26885.84930967</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-26884.34930967</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-28366.17030967</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-32281.18110967</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-32537.70410967</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-32537.70410967</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-32537.70410967</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-32566.43360967001</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-29909.23980967001</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-30145.23980967001</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-30145.23980967001</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-30151.23980967001</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-31326.03830967001</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-30893.03830967001</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-30896.03830967001</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-30899.03830967001</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-31434.03830967001</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-37480.05314777001</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-32853.81890846002</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-32046.81890846002</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-31750.81890846002</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-31274.81890846002</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-31274.81890846002</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-31283.81890846002</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-37659.12500846002</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -10450,11 +10450,17 @@
         <v>-63400.07708201005</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>167.1</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10493,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,7 +10526,7 @@
         <v>-61561.70078201005</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>168.1</v>
@@ -10524,7 +10534,7 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L307" t="n">
@@ -10555,7 +10565,7 @@
         <v>-61723.18588201005</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>172</v>
@@ -10594,7 +10604,7 @@
         <v>-61120.18588201005</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>169</v>
@@ -10633,7 +10643,7 @@
         <v>-60861.85220004005</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>171</v>
@@ -10709,9 +10719,11 @@
         <v>-61041.00660004005</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>169.2</v>
+      </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -10783,9 +10795,11 @@
         <v>-64031.00660004005</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>168</v>
+      </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -10820,9 +10834,11 @@
         <v>-64181.46900004004</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>170</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -10857,9 +10873,11 @@
         <v>-68305.52120004005</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>168</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -10894,7 +10912,7 @@
         <v>-68305.52120004005</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>166.1</v>
@@ -10933,7 +10951,7 @@
         <v>-68305.52120004005</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>166.1</v>
@@ -10972,7 +10990,7 @@
         <v>-67682.39070004005</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>166.1</v>
@@ -11011,7 +11029,7 @@
         <v>-67679.39070004005</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>167.1</v>
@@ -11050,7 +11068,7 @@
         <v>-67682.39070004005</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>169</v>
@@ -11089,7 +11107,7 @@
         <v>-67682.39070004005</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>167.1</v>
@@ -11128,7 +11146,7 @@
         <v>-67679.39070004005</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>167.1</v>
@@ -11167,7 +11185,7 @@
         <v>-67685.39070004005</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>168.9</v>
@@ -11206,7 +11224,7 @@
         <v>-67682.39070004005</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>167.1</v>
@@ -11245,7 +11263,7 @@
         <v>-85268.79040004004</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>168.9</v>
@@ -11284,7 +11302,7 @@
         <v>-75143.15770004004</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>167.1</v>
@@ -11323,7 +11341,7 @@
         <v>-50678.18740004004</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>173.9</v>
@@ -11362,7 +11380,7 @@
         <v>-46598.97350004004</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>182</v>
@@ -13288,16 +13306,18 @@
         <v>-63459.76776272005</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
       <c r="M381" t="inlineStr"/>
     </row>
     <row r="382">
@@ -13327,7 +13347,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13360,7 +13384,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13393,7 +13421,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13426,7 +13458,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13459,7 +13495,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13492,7 +13532,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13525,7 +13569,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13558,7 +13606,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13591,7 +13643,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13624,7 +13680,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13657,7 +13717,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13690,7 +13754,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13723,7 +13791,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13756,7 +13828,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13789,7 +13865,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13822,7 +13902,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13855,7 +13939,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13888,7 +13976,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13921,7 +14013,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13954,7 +14050,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13987,7 +14087,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14020,7 +14124,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14053,7 +14161,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14086,7 +14198,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14119,7 +14235,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14152,7 +14272,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14185,7 +14309,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14218,7 +14346,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14251,7 +14383,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14284,7 +14420,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14317,7 +14457,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14350,7 +14494,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14383,7 +14531,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14416,7 +14568,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14449,7 +14605,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14482,7 +14642,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14515,7 +14679,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14548,7 +14716,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14581,7 +14753,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14614,7 +14790,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14647,7 +14827,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14680,7 +14864,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14713,7 +14901,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14746,7 +14938,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14779,7 +14975,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14812,7 +15012,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14845,7 +15049,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14878,7 +15086,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14911,7 +15123,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14944,7 +15160,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14977,7 +15197,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15010,7 +15234,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15043,7 +15271,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15076,7 +15308,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15109,7 +15345,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15142,7 +15382,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15175,7 +15419,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15208,7 +15456,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15241,7 +15493,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15274,7 +15530,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15307,7 +15567,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15340,7 +15604,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15373,7 +15641,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15406,7 +15678,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15439,7 +15715,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15472,7 +15752,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15505,7 +15789,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15538,7 +15826,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15571,7 +15863,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15604,7 +15900,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15637,7 +15937,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15670,7 +15974,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15703,7 +16011,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15736,7 +16048,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15769,7 +16085,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15802,7 +16122,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15835,7 +16159,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15868,7 +16196,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15901,7 +16233,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15930,11 +16266,15 @@
         <v>-41068.59770209009</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15967,7 +16307,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15996,11 +16340,15 @@
         <v>28016.75564303991</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16033,7 +16381,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16066,7 +16418,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16099,7 +16455,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16132,7 +16492,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16165,7 +16529,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16198,7 +16566,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16231,7 +16603,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16264,7 +16640,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16297,7 +16677,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16326,11 +16710,15 @@
         <v>33872.44491158991</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16363,7 +16751,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16392,11 +16784,15 @@
         <v>-1279.223688270089</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16429,7 +16825,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16462,7 +16862,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16495,7 +16899,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16528,7 +16936,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16561,7 +16973,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16594,7 +17010,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16627,7 +17047,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16660,7 +17084,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16689,11 +17117,15 @@
         <v>-13942.31457398009</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16722,14 +17154,16 @@
         <v>-9937.771373980089</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="n">
-        <v>1</v>
-      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="inlineStr"/>
     </row>
     <row r="486">
@@ -16755,7 +17189,7 @@
         <v>-9934.771373980089</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16788,7 +17222,7 @@
         <v>-11143.38666693009</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16821,7 +17255,7 @@
         <v>-12445.58026693009</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16854,7 +17288,7 @@
         <v>-12433.58026693009</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16887,7 +17321,7 @@
         <v>-15495.00556693009</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16920,7 +17354,7 @@
         <v>-14442.10856693009</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16953,7 +17387,7 @@
         <v>-1526.486666930088</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16986,7 +17420,7 @@
         <v>-1549.682666930088</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17019,7 +17453,7 @@
         <v>-3082.547066930088</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17481,7 +17915,7 @@
         <v>4528.601433069911</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17514,7 +17948,7 @@
         <v>4710.601433069911</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17547,7 +17981,7 @@
         <v>4707.601433069911</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17580,7 +18014,7 @@
         <v>3677.601433069911</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17613,7 +18047,7 @@
         <v>3677.601433069911</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17646,7 +18080,7 @@
         <v>3717.238433069911</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17679,7 +18113,7 @@
         <v>3720.238433069911</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17712,7 +18146,7 @@
         <v>2482.838483649911</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17745,7 +18179,7 @@
         <v>4619.117783649911</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17778,7 +18212,7 @@
         <v>-825.6862163500891</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17811,7 +18245,7 @@
         <v>-825.6862163500891</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17844,7 +18278,7 @@
         <v>-742.6862163500891</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17877,7 +18311,7 @@
         <v>-831.6862163500891</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17910,7 +18344,7 @@
         <v>5936.732683649911</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17943,7 +18377,7 @@
         <v>5880.951283649911</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18174,7 +18608,7 @@
         <v>6945.405783649911</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18207,7 +18641,7 @@
         <v>6951.405783649911</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18240,7 +18674,7 @@
         <v>6931.405783649911</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18273,7 +18707,7 @@
         <v>7257.405783649911</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18306,7 +18740,7 @@
         <v>6151.405783649911</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18405,7 +18839,7 @@
         <v>5502.828083649911</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18438,7 +18872,7 @@
         <v>5512.828083649911</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18504,7 +18938,7 @@
         <v>3600.525583649911</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18537,7 +18971,7 @@
         <v>1645.223083649911</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18570,7 +19004,7 @@
         <v>-894.1014163500893</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18603,7 +19037,7 @@
         <v>-412.0806163500893</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18636,7 +19070,7 @@
         <v>-8503.215416350089</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18933,7 +19367,7 @@
         <v>-10338.04147123009</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18966,7 +19400,7 @@
         <v>-10338.04147123009</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19659,7 +20093,7 @@
         <v>-24308.11276181009</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19692,7 +20126,7 @@
         <v>-27825.19476181009</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19725,7 +20159,7 @@
         <v>-27825.19476181009</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19802,6 +20236,6 @@
       <c r="M578" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ARN.xlsx
+++ b/BackTest/2020-01-14 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1177,7 +1177,7 @@
         <v>-25411.09330967</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-26839.57280967</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-26836.57280967</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-26885.84930967</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-28315.17030967</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-28315.17030967</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -10489,9 +10489,11 @@
         <v>-62810.92818201005</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>168</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -10719,11 +10721,9 @@
         <v>-61041.00660004005</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>169.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -10758,9 +10758,11 @@
         <v>-64041.00660004005</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>169.2</v>
+      </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -11380,11 +11382,9 @@
         <v>-46598.97350004004</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -12529,18 +12529,16 @@
         <v>-55456.24370004004</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
@@ -12570,11 +12568,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12607,11 +12601,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12644,11 +12634,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12681,11 +12667,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12718,11 +12700,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12755,11 +12733,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12792,11 +12766,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12829,11 +12799,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12866,11 +12832,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12903,11 +12865,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12940,11 +12898,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12977,11 +12931,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13014,11 +12964,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13051,11 +12997,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13088,11 +13030,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13125,11 +13063,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13162,11 +13096,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13199,11 +13129,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13236,11 +13162,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13273,11 +13195,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13310,11 +13228,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13347,11 +13261,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13384,11 +13294,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13421,11 +13327,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13458,11 +13360,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13495,11 +13393,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13532,11 +13426,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13569,11 +13459,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13606,11 +13492,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13643,11 +13525,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13680,11 +13558,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13591,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13754,11 +13624,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13791,11 +13657,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13824,15 +13686,15 @@
         <v>-81627.16135632005</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="J395" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13861,13 +13723,17 @@
         <v>-79288.46075632006</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>171</v>
+      </c>
+      <c r="J396" t="n">
+        <v>166.9</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L396" t="n">
@@ -13898,13 +13764,17 @@
         <v>-78308.32475632006</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>174</v>
+      </c>
+      <c r="J397" t="n">
+        <v>166.9</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -13939,11 +13809,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13976,11 +13842,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14013,11 +13875,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14050,11 +13908,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14087,11 +13941,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14124,11 +13974,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14161,11 +14007,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14198,11 +14040,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14235,11 +14073,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14272,11 +14106,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14309,11 +14139,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14346,11 +14172,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14383,11 +14205,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14420,11 +14238,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14457,11 +14271,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14494,11 +14304,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14531,11 +14337,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14568,11 +14370,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14601,15 +14399,15 @@
         <v>-85307.33585861007</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>171.2</v>
+      </c>
+      <c r="J416" t="n">
+        <v>171.2</v>
+      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14638,13 +14436,17 @@
         <v>-85307.33585861007</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>174</v>
+      </c>
+      <c r="J417" t="n">
+        <v>171.2</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L417" t="n">
@@ -14675,13 +14477,17 @@
         <v>-82877.51145861007</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>174</v>
+      </c>
+      <c r="J418" t="n">
+        <v>171.2</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L418" t="n">
@@ -14712,15 +14518,15 @@
         <v>-82763.24032298007</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="J419" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14752,10 +14558,12 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L420" t="n">
@@ -14789,10 +14597,12 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L421" t="n">
@@ -14826,7 +14636,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14863,7 +14675,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14900,7 +14714,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14937,7 +14753,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14974,7 +14792,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15011,7 +14831,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15048,7 +14870,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15085,7 +14909,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15122,7 +14948,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15159,7 +14987,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15196,7 +15026,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15233,7 +15065,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15270,7 +15104,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15307,7 +15143,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15344,7 +15182,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15381,7 +15221,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15418,7 +15260,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15455,7 +15299,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15489,10 +15335,14 @@
         <v>-83687.87715696006</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>176</v>
+      </c>
+      <c r="J440" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15526,10 +15376,14 @@
         <v>-82525.28665696006</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>176</v>
+      </c>
+      <c r="J441" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15566,7 +15420,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15603,7 +15459,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15640,7 +15498,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15677,7 +15537,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15714,7 +15576,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15751,7 +15615,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15788,7 +15654,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15825,7 +15693,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15859,17 +15729,19 @@
         <v>-74855.37435951007</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>174.9</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L450" t="n">
-        <v>1</v>
+        <v>1.029877072612922</v>
       </c>
       <c r="M450" t="inlineStr"/>
     </row>
@@ -15896,15 +15768,11 @@
         <v>-73599.72305951007</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15933,15 +15801,11 @@
         <v>-73677.92305951007</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15970,15 +15834,11 @@
         <v>-72674.61315951007</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16007,15 +15867,11 @@
         <v>-72704.61315951007</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16048,11 +15904,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16085,11 +15937,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16122,11 +15970,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16155,15 +15999,11 @@
         <v>-63889.21595951009</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16192,15 +16032,11 @@
         <v>-54418.05515951009</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16229,15 +16065,11 @@
         <v>-39894.39430209009</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16266,15 +16098,11 @@
         <v>-41068.59770209009</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16303,15 +16131,11 @@
         <v>17827.12579790991</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16340,15 +16164,11 @@
         <v>28016.75564303991</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16381,11 +16201,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16418,11 +16234,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16455,11 +16267,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16492,11 +16300,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16529,11 +16333,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16566,11 +16366,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16603,11 +16399,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16640,11 +16432,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16673,15 +16461,11 @@
         <v>24436.33721158991</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16710,15 +16494,11 @@
         <v>33872.44491158991</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16751,11 +16531,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16788,11 +16564,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16825,11 +16597,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16862,11 +16630,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16899,11 +16663,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16936,11 +16696,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16973,11 +16729,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17010,11 +16762,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17047,11 +16795,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17084,11 +16828,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17121,11 +16861,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17154,16 +16890,14 @@
         <v>-9937.771373980089</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="n">
+        <v>1</v>
+      </c>
       <c r="M485" t="inlineStr"/>
     </row>
     <row r="486">
@@ -17189,7 +16923,7 @@
         <v>-9934.771373980089</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17222,7 +16956,7 @@
         <v>-11143.38666693009</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17255,7 +16989,7 @@
         <v>-12445.58026693009</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17288,7 +17022,7 @@
         <v>-12433.58026693009</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17321,7 +17055,7 @@
         <v>-15495.00556693009</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17354,7 +17088,7 @@
         <v>-14442.10856693009</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17486,7 +17220,7 @@
         <v>-2559.748266930088</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17519,7 +17253,7 @@
         <v>6162.022933069911</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17552,7 +17286,7 @@
         <v>6147.022933069911</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17915,7 +17649,7 @@
         <v>4528.601433069911</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17948,7 +17682,7 @@
         <v>4710.601433069911</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17981,7 +17715,7 @@
         <v>4707.601433069911</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18014,7 +17748,7 @@
         <v>3677.601433069911</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18047,7 +17781,7 @@
         <v>3677.601433069911</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18080,7 +17814,7 @@
         <v>3717.238433069911</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18113,7 +17847,7 @@
         <v>3720.238433069911</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18146,7 +17880,7 @@
         <v>2482.838483649911</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18179,7 +17913,7 @@
         <v>4619.117783649911</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18212,7 +17946,7 @@
         <v>-825.6862163500891</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18245,7 +17979,7 @@
         <v>-825.6862163500891</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18278,7 +18012,7 @@
         <v>-742.6862163500891</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18311,7 +18045,7 @@
         <v>-831.6862163500891</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18344,7 +18078,7 @@
         <v>5936.732683649911</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18377,7 +18111,7 @@
         <v>5880.951283649911</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18641,7 +18375,7 @@
         <v>6951.405783649911</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20236,6 +19970,6 @@
       <c r="M578" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ARN.xlsx
+++ b/BackTest/2020-01-14 BackTest ARN.xlsx
@@ -1177,7 +1177,7 @@
         <v>-25411.09330967</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-26839.57280967</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-26836.57280967</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-26885.84930967</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-28315.17030967</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-28315.17030967</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -10450,17 +10450,11 @@
         <v>-63400.07708201005</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>167.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10489,17 +10483,11 @@
         <v>-62810.92818201005</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10528,17 +10516,11 @@
         <v>-61561.70078201005</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>168.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10567,17 +10549,11 @@
         <v>-61723.18588201005</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10606,17 +10582,11 @@
         <v>-61120.18588201005</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10645,17 +10615,11 @@
         <v>-60861.85220004005</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10688,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10725,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10758,17 +10714,11 @@
         <v>-64041.00660004005</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>169.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10797,17 +10747,11 @@
         <v>-64031.00660004005</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10836,17 +10780,11 @@
         <v>-64181.46900004004</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10875,17 +10813,11 @@
         <v>-68305.52120004005</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10914,17 +10846,11 @@
         <v>-68305.52120004005</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>166.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10961,7 +10887,7 @@
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L318" t="n">
@@ -12529,16 +12455,18 @@
         <v>-55456.24370004004</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
       <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
@@ -12568,7 +12496,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12601,7 +12533,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12634,7 +12570,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12667,7 +12607,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12700,7 +12644,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12733,7 +12681,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12766,7 +12718,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12799,7 +12755,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12832,7 +12792,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12865,7 +12829,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12898,7 +12866,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12931,7 +12903,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12964,7 +12940,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12997,7 +12977,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13030,7 +13014,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13063,7 +13051,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13096,7 +13088,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13129,7 +13125,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13162,7 +13162,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13195,7 +13199,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13228,7 +13236,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13261,7 +13273,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13294,7 +13310,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13327,7 +13347,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13360,7 +13384,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13393,7 +13421,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13426,7 +13458,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13459,7 +13495,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13492,7 +13532,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13525,7 +13569,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13558,7 +13606,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13591,7 +13643,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13624,7 +13680,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13657,7 +13717,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13686,15 +13750,15 @@
         <v>-81627.16135632005</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>166.9</v>
-      </c>
-      <c r="J395" t="n">
-        <v>166.9</v>
-      </c>
-      <c r="K395" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13723,17 +13787,13 @@
         <v>-79288.46075632006</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>171</v>
-      </c>
-      <c r="J396" t="n">
-        <v>166.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L396" t="n">
@@ -13764,17 +13824,13 @@
         <v>-78308.32475632006</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>174</v>
-      </c>
-      <c r="J397" t="n">
-        <v>166.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -13809,7 +13865,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13842,7 +13902,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13875,7 +13939,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13908,7 +13976,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13941,7 +14013,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13974,7 +14050,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14007,7 +14087,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14040,7 +14124,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14073,7 +14161,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14106,7 +14198,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14139,7 +14235,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14172,7 +14272,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14205,7 +14309,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14238,7 +14346,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14271,7 +14383,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14304,7 +14420,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14337,7 +14457,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14370,7 +14494,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14399,15 +14527,15 @@
         <v>-85307.33585861007</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>171.2</v>
-      </c>
-      <c r="J416" t="n">
-        <v>171.2</v>
-      </c>
-      <c r="K416" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14436,17 +14564,13 @@
         <v>-85307.33585861007</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>174</v>
-      </c>
-      <c r="J417" t="n">
-        <v>171.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L417" t="n">
@@ -14477,17 +14601,13 @@
         <v>-82877.51145861007</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>174</v>
-      </c>
-      <c r="J418" t="n">
-        <v>171.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L418" t="n">
@@ -14518,15 +14638,15 @@
         <v>-82763.24032298007</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>174.9</v>
-      </c>
-      <c r="J419" t="n">
-        <v>174.9</v>
-      </c>
-      <c r="K419" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14558,12 +14678,10 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L420" t="n">
@@ -14597,12 +14715,10 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L421" t="n">
@@ -14636,9 +14752,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14675,9 +14789,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14714,9 +14826,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14753,9 +14863,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14792,9 +14900,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14831,9 +14937,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14870,9 +14974,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14909,9 +15011,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14948,9 +15048,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14987,9 +15085,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15026,9 +15122,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15065,9 +15159,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15104,9 +15196,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15143,9 +15233,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15182,9 +15270,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15221,9 +15307,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15260,9 +15344,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15299,9 +15381,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15335,14 +15415,10 @@
         <v>-83687.87715696006</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>176</v>
-      </c>
-      <c r="J440" t="n">
-        <v>174.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15376,14 +15452,10 @@
         <v>-82525.28665696006</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>176</v>
-      </c>
-      <c r="J441" t="n">
-        <v>174.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15420,9 +15492,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15459,9 +15529,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15498,9 +15566,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15537,9 +15603,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15576,9 +15640,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15615,9 +15677,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15654,9 +15714,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15693,9 +15751,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>174.9</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15729,482 +15785,534 @@
         <v>-74855.37435951007</v>
       </c>
       <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="C451" t="n">
+        <v>189</v>
+      </c>
+      <c r="D451" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="E451" t="n">
+        <v>182</v>
+      </c>
+      <c r="F451" t="n">
+        <v>1255.6513</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-73599.72305951007</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>185</v>
+      </c>
+      <c r="C452" t="n">
+        <v>185</v>
+      </c>
+      <c r="D452" t="n">
+        <v>185</v>
+      </c>
+      <c r="E452" t="n">
+        <v>185</v>
+      </c>
+      <c r="F452" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-73677.92305951007</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>185</v>
+      </c>
+      <c r="C453" t="n">
+        <v>188</v>
+      </c>
+      <c r="D453" t="n">
+        <v>188</v>
+      </c>
+      <c r="E453" t="n">
+        <v>183</v>
+      </c>
+      <c r="F453" t="n">
+        <v>1003.3099</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-72674.61315951007</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>182</v>
+      </c>
+      <c r="C454" t="n">
+        <v>186</v>
+      </c>
+      <c r="D454" t="n">
+        <v>186</v>
+      </c>
+      <c r="E454" t="n">
+        <v>182</v>
+      </c>
+      <c r="F454" t="n">
+        <v>30</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-72704.61315951007</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>181</v>
+      </c>
+      <c r="C455" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D455" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="E455" t="n">
+        <v>181</v>
+      </c>
+      <c r="F455" t="n">
+        <v>63.8923</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-72768.50545951008</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>185</v>
+      </c>
+      <c r="C456" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D456" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="E456" t="n">
+        <v>185</v>
+      </c>
+      <c r="F456" t="n">
+        <v>3173.2223</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-69595.28315951009</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="C457" t="n">
+        <v>188</v>
+      </c>
+      <c r="D457" t="n">
+        <v>188</v>
+      </c>
+      <c r="E457" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="F457" t="n">
+        <v>5706.0672</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-63889.21595951009</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>188</v>
+      </c>
+      <c r="C458" t="n">
+        <v>188</v>
+      </c>
+      <c r="D458" t="n">
+        <v>188</v>
+      </c>
+      <c r="E458" t="n">
+        <v>188</v>
+      </c>
+      <c r="F458" t="n">
+        <v>293.9328</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-63889.21595951009</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>188</v>
+      </c>
+      <c r="C459" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="D459" t="n">
+        <v>197.9</v>
+      </c>
+      <c r="E459" t="n">
+        <v>188</v>
+      </c>
+      <c r="F459" t="n">
+        <v>9471.1608</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-54418.05515951009</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>197</v>
+      </c>
+      <c r="C460" t="n">
+        <v>202</v>
+      </c>
+      <c r="D460" t="n">
+        <v>202</v>
+      </c>
+      <c r="E460" t="n">
+        <v>197</v>
+      </c>
+      <c r="F460" t="n">
+        <v>14523.66085742</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-39894.39430209009</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>201</v>
+      </c>
+      <c r="C461" t="n">
+        <v>201</v>
+      </c>
+      <c r="D461" t="n">
+        <v>201</v>
+      </c>
+      <c r="E461" t="n">
+        <v>201</v>
+      </c>
+      <c r="F461" t="n">
+        <v>1174.2034</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-41068.59770209009</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>202</v>
+      </c>
+      <c r="C462" t="n">
+        <v>214</v>
+      </c>
+      <c r="D462" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="E462" t="n">
+        <v>201</v>
+      </c>
+      <c r="F462" t="n">
+        <v>58895.7235</v>
+      </c>
+      <c r="G462" t="n">
+        <v>17827.12579790991</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>215</v>
+      </c>
+      <c r="C463" t="n">
+        <v>222</v>
+      </c>
+      <c r="D463" t="n">
+        <v>222</v>
+      </c>
+      <c r="E463" t="n">
+        <v>215</v>
+      </c>
+      <c r="F463" t="n">
+        <v>10189.62984513</v>
+      </c>
+      <c r="G463" t="n">
+        <v>28016.75564303991</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>222</v>
+      </c>
+      <c r="C464" t="n">
+        <v>213</v>
+      </c>
+      <c r="D464" t="n">
+        <v>222</v>
+      </c>
+      <c r="E464" t="n">
+        <v>212</v>
+      </c>
+      <c r="F464" t="n">
+        <v>27568.9761</v>
+      </c>
+      <c r="G464" t="n">
+        <v>447.7795430399128</v>
+      </c>
+      <c r="H464" t="n">
         <v>2</v>
       </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>174.9</v>
-      </c>
-      <c r="K450" t="inlineStr">
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L450" t="n">
-        <v>1.029877072612922</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>192.6</v>
-      </c>
-      <c r="C451" t="n">
-        <v>189</v>
-      </c>
-      <c r="D451" t="n">
-        <v>192.6</v>
-      </c>
-      <c r="E451" t="n">
-        <v>182</v>
-      </c>
-      <c r="F451" t="n">
-        <v>1255.6513</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-73599.72305951007</v>
-      </c>
-      <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>185</v>
-      </c>
-      <c r="C452" t="n">
-        <v>185</v>
-      </c>
-      <c r="D452" t="n">
-        <v>185</v>
-      </c>
-      <c r="E452" t="n">
-        <v>185</v>
-      </c>
-      <c r="F452" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-73677.92305951007</v>
-      </c>
-      <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>185</v>
-      </c>
-      <c r="C453" t="n">
-        <v>188</v>
-      </c>
-      <c r="D453" t="n">
-        <v>188</v>
-      </c>
-      <c r="E453" t="n">
-        <v>183</v>
-      </c>
-      <c r="F453" t="n">
-        <v>1003.3099</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-72674.61315951007</v>
-      </c>
-      <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>182</v>
-      </c>
-      <c r="C454" t="n">
-        <v>186</v>
-      </c>
-      <c r="D454" t="n">
-        <v>186</v>
-      </c>
-      <c r="E454" t="n">
-        <v>182</v>
-      </c>
-      <c r="F454" t="n">
-        <v>30</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-72704.61315951007</v>
-      </c>
-      <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>181</v>
-      </c>
-      <c r="C455" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D455" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="E455" t="n">
-        <v>181</v>
-      </c>
-      <c r="F455" t="n">
-        <v>63.8923</v>
-      </c>
-      <c r="G455" t="n">
-        <v>-72768.50545951008</v>
-      </c>
-      <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>185</v>
-      </c>
-      <c r="C456" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="D456" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="E456" t="n">
-        <v>185</v>
-      </c>
-      <c r="F456" t="n">
-        <v>3173.2223</v>
-      </c>
-      <c r="G456" t="n">
-        <v>-69595.28315951009</v>
-      </c>
-      <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="C457" t="n">
-        <v>188</v>
-      </c>
-      <c r="D457" t="n">
-        <v>188</v>
-      </c>
-      <c r="E457" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="F457" t="n">
-        <v>5706.0672</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-63889.21595951009</v>
-      </c>
-      <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>188</v>
-      </c>
-      <c r="C458" t="n">
-        <v>188</v>
-      </c>
-      <c r="D458" t="n">
-        <v>188</v>
-      </c>
-      <c r="E458" t="n">
-        <v>188</v>
-      </c>
-      <c r="F458" t="n">
-        <v>293.9328</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-63889.21595951009</v>
-      </c>
-      <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>188</v>
-      </c>
-      <c r="C459" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="D459" t="n">
-        <v>197.9</v>
-      </c>
-      <c r="E459" t="n">
-        <v>188</v>
-      </c>
-      <c r="F459" t="n">
-        <v>9471.1608</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-54418.05515951009</v>
-      </c>
-      <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>197</v>
-      </c>
-      <c r="C460" t="n">
-        <v>202</v>
-      </c>
-      <c r="D460" t="n">
-        <v>202</v>
-      </c>
-      <c r="E460" t="n">
-        <v>197</v>
-      </c>
-      <c r="F460" t="n">
-        <v>14523.66085742</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-39894.39430209009</v>
-      </c>
-      <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>201</v>
-      </c>
-      <c r="C461" t="n">
-        <v>201</v>
-      </c>
-      <c r="D461" t="n">
-        <v>201</v>
-      </c>
-      <c r="E461" t="n">
-        <v>201</v>
-      </c>
-      <c r="F461" t="n">
-        <v>1174.2034</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-41068.59770209009</v>
-      </c>
-      <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>202</v>
-      </c>
-      <c r="C462" t="n">
-        <v>214</v>
-      </c>
-      <c r="D462" t="n">
-        <v>215.5</v>
-      </c>
-      <c r="E462" t="n">
-        <v>201</v>
-      </c>
-      <c r="F462" t="n">
-        <v>58895.7235</v>
-      </c>
-      <c r="G462" t="n">
-        <v>17827.12579790991</v>
-      </c>
-      <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>215</v>
-      </c>
-      <c r="C463" t="n">
-        <v>222</v>
-      </c>
-      <c r="D463" t="n">
-        <v>222</v>
-      </c>
-      <c r="E463" t="n">
-        <v>215</v>
-      </c>
-      <c r="F463" t="n">
-        <v>10189.62984513</v>
-      </c>
-      <c r="G463" t="n">
-        <v>28016.75564303991</v>
-      </c>
-      <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>222</v>
-      </c>
-      <c r="C464" t="n">
-        <v>213</v>
-      </c>
-      <c r="D464" t="n">
-        <v>222</v>
-      </c>
-      <c r="E464" t="n">
-        <v>212</v>
-      </c>
-      <c r="F464" t="n">
-        <v>27568.9761</v>
-      </c>
-      <c r="G464" t="n">
-        <v>447.7795430399128</v>
-      </c>
-      <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="inlineStr"/>
     </row>
     <row r="465">
@@ -16230,7 +16338,7 @@
         <v>-1252.683356960087</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16362,7 +16470,7 @@
         <v>376.1899115899128</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16395,7 +16503,7 @@
         <v>-1967.766388410087</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16428,7 +16536,7 @@
         <v>973.347411589913</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16527,7 +16635,7 @@
         <v>14558.92331158991</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16560,7 +16668,7 @@
         <v>-1279.223688270089</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16593,7 +16701,7 @@
         <v>-12851.36608827009</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16626,7 +16734,7 @@
         <v>-14205.70168827009</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16857,7 +16965,7 @@
         <v>-13942.31457398009</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16956,7 +17064,7 @@
         <v>-11143.38666693009</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16989,7 +17097,7 @@
         <v>-12445.58026693009</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17022,7 +17130,7 @@
         <v>-12433.58026693009</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17055,7 +17163,7 @@
         <v>-15495.00556693009</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17088,7 +17196,7 @@
         <v>-14442.10856693009</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17253,7 +17361,7 @@
         <v>6162.022933069911</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17286,7 +17394,7 @@
         <v>6147.022933069911</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17319,7 +17427,7 @@
         <v>984.0229330699112</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17583,7 +17691,7 @@
         <v>6318.23653306991</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
